--- a/biology/Botanique/Calycanthus_chinensis/Calycanthus_chinensis.xlsx
+++ b/biology/Botanique/Calycanthus_chinensis/Calycanthus_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Calycanthus chinensis ou Sinocalycanthus chinensis, « bonbon chinois », appartient à la famille des Calycanthacées, genres Calycanthus. Cette espèce est enregistrée comme une espèce en voie de disparition.
 </t>
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Calycanthus chinensis est un arbuste à feuilles ovales caduques, il peut mesurer jusqu’à 3 m de haut, son écorce est de couleur marron à grise [1]. Cette espèce a une croissance rapide, elle fleurit en mai avec de larges fleurs blanches à cœur jaune et teinté de rouge. Les fruits sont mûrs en octobre.
-Le mode de dispersion des graines du Sinocalycanthus chinensis se fait par la gravité : la barochorie. Cette espèce présente des molécules d’alcaloïdes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Calycanthus chinensis est un arbuste à feuilles ovales caduques, il peut mesurer jusqu’à 3 m de haut, son écorce est de couleur marron à grise . Cette espèce a une croissance rapide, elle fleurit en mai avec de larges fleurs blanches à cœur jaune et teinté de rouge. Les fruits sont mûrs en octobre.
+Le mode de dispersion des graines du Sinocalycanthus chinensis se fait par la gravité : la barochorie. Cette espèce présente des molécules d’alcaloïdes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Zone d’habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sinocalycanthus chinensis se localisent en Chine [3]. Plus précisément en montagne entre 470 et 1 200 m d’altitude. Cette espèce pousse dans des forêts.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sinocalycanthus chinensis se localisent en Chine . Plus précisément en montagne entre 470 et 1 200 m d’altitude. Cette espèce pousse dans des forêts.
 </t>
         </is>
       </c>
